--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>195.0616577848938</v>
+        <v>1.810812780448</v>
       </c>
       <c r="R2">
-        <v>1755.554920064044</v>
+        <v>16.297315024032</v>
       </c>
       <c r="S2">
-        <v>0.03327277618216672</v>
+        <v>0.0005940493304336059</v>
       </c>
       <c r="T2">
-        <v>0.03327277618216672</v>
+        <v>0.0005940493304336061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>192.2561009329204</v>
+        <v>44.36935607787199</v>
       </c>
       <c r="R3">
-        <v>1730.304908396284</v>
+        <v>399.3242047008479</v>
       </c>
       <c r="S3">
-        <v>0.03279421639618871</v>
+        <v>0.01455566613756126</v>
       </c>
       <c r="T3">
-        <v>0.03279421639618871</v>
+        <v>0.01455566613756126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>28.69629144137922</v>
+        <v>6.622603740004</v>
       </c>
       <c r="R4">
-        <v>258.266622972413</v>
+        <v>59.603433660036</v>
       </c>
       <c r="S4">
-        <v>0.00489488961198186</v>
+        <v>0.002172589767398897</v>
       </c>
       <c r="T4">
-        <v>0.004894889611981861</v>
+        <v>0.002172589767398897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>2492.955543607409</v>
+        <v>100.2797351822907</v>
       </c>
       <c r="R5">
-        <v>22436.59989246668</v>
+        <v>902.517616640616</v>
       </c>
       <c r="S5">
-        <v>0.4252376032096085</v>
+        <v>0.03289744262041327</v>
       </c>
       <c r="T5">
-        <v>0.4252376032096085</v>
+        <v>0.03289744262041328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>2457.099555370369</v>
@@ -818,10 +818,10 @@
         <v>22113.89599833332</v>
       </c>
       <c r="S6">
-        <v>0.4191214434017335</v>
+        <v>0.8060680603962603</v>
       </c>
       <c r="T6">
-        <v>0.4191214434017335</v>
+        <v>0.8060680603962606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>366.7485432152436</v>
+        <v>366.7485432152437</v>
       </c>
       <c r="R7">
-        <v>3300.736888937192</v>
+        <v>3300.736888937193</v>
       </c>
       <c r="S7">
-        <v>0.06255838452369351</v>
+        <v>0.1203143300549354</v>
       </c>
       <c r="T7">
-        <v>0.06255838452369351</v>
+        <v>0.1203143300549354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>60.80585352174578</v>
+        <v>2.445930054520889</v>
       </c>
       <c r="R8">
-        <v>547.2526816957121</v>
+        <v>22.013370490688</v>
       </c>
       <c r="S8">
-        <v>0.01037200020634369</v>
+        <v>0.000802403830403765</v>
       </c>
       <c r="T8">
-        <v>0.0103720002063437</v>
+        <v>0.0008024038304037652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
-        <v>59.93128759769245</v>
+        <v>59.93128759769244</v>
       </c>
       <c r="R9">
-        <v>539.3815883792321</v>
+        <v>539.381588379232</v>
       </c>
       <c r="S9">
-        <v>0.01022282052347816</v>
+        <v>0.01966086259929367</v>
       </c>
       <c r="T9">
-        <v>0.01022282052347816</v>
+        <v>0.01966086259929367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
         <v>8.945389441558222</v>
@@ -1066,10 +1066,10 @@
         <v>80.50850497402401</v>
       </c>
       <c r="S10">
-        <v>0.001525865944805551</v>
+        <v>0.002934595263299838</v>
       </c>
       <c r="T10">
-        <v>0.001525865944805552</v>
+        <v>0.002934595263299838</v>
       </c>
     </row>
   </sheetData>
